--- a/data/collegeboard_trends_costs.xlsx
+++ b/data/collegeboard_trends_costs.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregdubrow/Data/USF-talk-February-2020/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\research projects\USF-talk-February-2020\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD39A78-6854-964A-9EE7-BDC4CD6A3EA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="31760" windowHeight="19340" activeTab="1" xr2:uid="{CA8C45D6-E634-4DFB-9D1A-69ABB3ECAE51}"/>
+    <workbookView xWindow="825" yWindow="465" windowWidth="31755" windowHeight="19335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table 3" sheetId="1" r:id="rId1"/>
     <sheet name="clean" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="cpi" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="aaa">[1]TAB350!#REF!</definedName>
@@ -46,23 +46,17 @@
     <definedName name="qqq">[1]TAB350!#REF!</definedName>
     <definedName name="SPSS">'[3]Other types'!$A$1:$J$1121</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="88">
   <si>
     <t>TABLE 3. Average Tuition and Fees and Room and Board (Unweighted) in Current Dollars and in 2019 Dollars, 1986-87 to 2019-20</t>
   </si>
@@ -312,16 +306,31 @@
   <si>
     <t>All other Jesuit colleges</t>
   </si>
+  <si>
+    <t>from 1987</t>
+  </si>
+  <si>
+    <t>from 1989</t>
+  </si>
+  <si>
+    <t>constant_1989</t>
+  </si>
+  <si>
+    <t>median family income</t>
+  </si>
+  <si>
+    <t>median income</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,8 +368,154 @@
       <name val="Lucida Grande"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,8 +540,193 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF4CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -487,11 +827,200 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAC1D9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFAAC1D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -585,6 +1114,12 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -594,15 +1129,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="36" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -684,7 +1275,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-8AA4-B941-8EE0-3D326129F4E2}"/>
                 </c:ext>
@@ -705,7 +1298,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-8B5A-E545-A5A0-D974DFB34EB3}"/>
                 </c:ext>
@@ -1035,7 +1630,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-8AA4-B941-8EE0-3D326129F4E2}"/>
                 </c:ext>
@@ -1082,7 +1679,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-8B5A-E545-A5A0-D974DFB34EB3}"/>
                 </c:ext>
@@ -1407,7 +2006,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-8B5A-E545-A5A0-D974DFB34EB3}"/>
                 </c:ext>
@@ -1454,7 +2055,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-8B5A-E545-A5A0-D974DFB34EB3}"/>
                 </c:ext>
@@ -1779,7 +2382,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-8B5A-E545-A5A0-D974DFB34EB3}"/>
                 </c:ext>
@@ -2102,6 +2707,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2109,7 +2715,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2706,15 +3311,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>380852</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>21590</xdr:rowOff>
+      <xdr:colOff>342752</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -54091,7 +54696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E2FA83-64BC-4294-BB95-17BB99BD046B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -54101,14 +54706,14 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="32" width="9.1640625" customWidth="1"/>
-    <col min="37" max="37" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="32" width="9.140625" customWidth="1"/>
+    <col min="37" max="37" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="28.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -54149,7 +54754,7 @@
       <c r="AJ1" s="1"/>
       <c r="AK1" s="2"/>
     </row>
-    <row r="2" spans="1:37" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" ht="32.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -54262,7 +54867,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -54303,7 +54908,7 @@
       <c r="AJ3" s="14"/>
       <c r="AK3" s="14"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37">
       <c r="A4" s="15" t="s">
         <v>39</v>
       </c>
@@ -54418,7 +55023,7 @@
         <v>0.23456790123456789</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37">
       <c r="A5" s="15" t="s">
         <v>40</v>
       </c>
@@ -54533,7 +55138,7 @@
         <v>0.21428571428571427</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37">
       <c r="A6" s="15" t="s">
         <v>41</v>
       </c>
@@ -54648,7 +55253,7 @@
         <v>0.19878833775085195</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" ht="20.25" customHeight="1">
       <c r="A7" s="19" t="s">
         <v>42</v>
       </c>
@@ -54689,7 +55294,7 @@
       <c r="AJ7" s="22"/>
       <c r="AK7" s="22"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37">
       <c r="A8" s="15" t="s">
         <v>39</v>
       </c>
@@ -54802,7 +55407,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37">
       <c r="A9" s="15" t="s">
         <v>40</v>
       </c>
@@ -54917,7 +55522,7 @@
         <v>0.18514412416851442</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37">
       <c r="A10" s="15" t="s">
         <v>41</v>
       </c>
@@ -55032,7 +55637,7 @@
         <v>0.18071065989847715</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" ht="35.25" customHeight="1">
       <c r="A11" s="26" t="s">
         <v>44</v>
       </c>
@@ -55073,7 +55678,7 @@
       <c r="AJ11" s="21"/>
       <c r="AK11" s="22"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37">
       <c r="A12" s="15" t="s">
         <v>39</v>
       </c>
@@ -55186,7 +55791,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37">
       <c r="A13" s="15" t="s">
         <v>40</v>
       </c>
@@ -55301,7 +55906,7 @@
         <v>0.1988235294117647</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37">
       <c r="A14" s="27" t="s">
         <v>41</v>
       </c>
@@ -55416,7 +56021,7 @@
         <v>0.19354838709677419</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" ht="34.5" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
@@ -55529,7 +56134,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" ht="21.75" customHeight="1">
       <c r="A16" s="10" t="s">
         <v>38</v>
       </c>
@@ -55570,7 +56175,7 @@
       <c r="AJ16" s="30"/>
       <c r="AK16" s="30"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37">
       <c r="A17" s="15" t="s">
         <v>39</v>
       </c>
@@ -55685,7 +56290,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37">
       <c r="A18" s="15" t="s">
         <v>40</v>
       </c>
@@ -55800,7 +56405,7 @@
         <v>0.44626865671641791</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37">
       <c r="A19" s="15" t="s">
         <v>41</v>
       </c>
@@ -55915,7 +56520,7 @@
         <v>0.42805593143888138</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" ht="21.75" customHeight="1">
       <c r="A20" s="19" t="s">
         <v>42</v>
       </c>
@@ -55956,7 +56561,7 @@
       <c r="AJ20" s="22"/>
       <c r="AK20" s="22"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37">
       <c r="A21" s="15" t="s">
         <v>39</v>
       </c>
@@ -56069,7 +56674,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37">
       <c r="A22" s="15" t="s">
         <v>40</v>
       </c>
@@ -56184,7 +56789,7 @@
         <v>0.41215323645970936</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37">
       <c r="A23" s="15" t="s">
         <v>41</v>
       </c>
@@ -56299,7 +56904,7 @@
         <v>0.40628778718258768</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" ht="30" customHeight="1">
       <c r="A24" s="35" t="s">
         <v>44</v>
       </c>
@@ -56340,7 +56945,7 @@
       <c r="AJ24" s="21"/>
       <c r="AK24" s="22"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37">
       <c r="A25" s="15" t="s">
         <v>39</v>
       </c>
@@ -56453,7 +57058,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37">
       <c r="A26" s="15" t="s">
         <v>40</v>
       </c>
@@ -56571,7 +57176,7 @@
         <v>0.42817098808689558</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37">
       <c r="A27" s="27" t="s">
         <v>41</v>
       </c>
@@ -56689,130 +57294,130 @@
         <v>0.42214191852825228</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="43" t="s">
+    <row r="28" spans="1:37" ht="24.75" customHeight="1">
+      <c r="A28" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="43"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="43"/>
-      <c r="Z28" s="43"/>
-      <c r="AA28" s="43"/>
-      <c r="AB28" s="43"/>
-      <c r="AC28" s="43"/>
-      <c r="AD28" s="43"/>
-      <c r="AE28" s="43"/>
-      <c r="AF28" s="43"/>
-      <c r="AG28" s="43"/>
-      <c r="AH28" s="43"/>
-      <c r="AI28" s="43"/>
-      <c r="AJ28" s="43"/>
-      <c r="AK28" s="43"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="47"/>
+      <c r="AB28" s="47"/>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="47"/>
+      <c r="AF28" s="47"/>
+      <c r="AG28" s="47"/>
+      <c r="AH28" s="47"/>
+      <c r="AI28" s="47"/>
+      <c r="AJ28" s="47"/>
+      <c r="AK28" s="47"/>
     </row>
-    <row r="29" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="44" t="s">
+    <row r="29" spans="1:37" ht="23.25" customHeight="1">
+      <c r="A29" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="44"/>
-      <c r="AA29" s="44"/>
-      <c r="AB29" s="44"/>
-      <c r="AC29" s="44"/>
-      <c r="AD29" s="44"/>
-      <c r="AE29" s="44"/>
-      <c r="AF29" s="44"/>
-      <c r="AG29" s="44"/>
-      <c r="AH29" s="44"/>
-      <c r="AI29" s="44"/>
-      <c r="AJ29" s="44"/>
-      <c r="AK29" s="44"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="48"/>
+      <c r="AD29" s="48"/>
+      <c r="AE29" s="48"/>
+      <c r="AF29" s="48"/>
+      <c r="AG29" s="48"/>
+      <c r="AH29" s="48"/>
+      <c r="AI29" s="48"/>
+      <c r="AJ29" s="48"/>
+      <c r="AK29" s="48"/>
     </row>
-    <row r="30" spans="1:37" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="45" t="s">
+    <row r="30" spans="1:37" ht="21.75" customHeight="1">
+      <c r="A30" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="45"/>
-      <c r="AB30" s="45"/>
-      <c r="AC30" s="45"/>
-      <c r="AD30" s="45"/>
-      <c r="AE30" s="45"/>
-      <c r="AF30" s="45"/>
-      <c r="AG30" s="45"/>
-      <c r="AH30" s="45"/>
-      <c r="AI30" s="45"/>
-      <c r="AJ30" s="45"/>
-      <c r="AK30" s="45"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="49"/>
+      <c r="AA30" s="49"/>
+      <c r="AB30" s="49"/>
+      <c r="AC30" s="49"/>
+      <c r="AD30" s="49"/>
+      <c r="AE30" s="49"/>
+      <c r="AF30" s="49"/>
+      <c r="AG30" s="49"/>
+      <c r="AH30" s="49"/>
+      <c r="AI30" s="49"/>
+      <c r="AJ30" s="49"/>
+      <c r="AK30" s="49"/>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:37" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A28:AK28"/>
@@ -56827,16 +57432,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53B1D73-CC96-7F42-B436-E35627AA79E9}">
-  <dimension ref="A1:AK8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37">
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
@@ -56940,7 +57545,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37">
       <c r="A2" s="15" t="s">
         <v>40</v>
       </c>
@@ -57054,7 +57659,7 @@
         <v>3.3574561403508771</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37">
       <c r="A3" s="27" t="s">
         <v>41</v>
       </c>
@@ -57168,104 +57773,104 @@
         <v>3.0210124164278893</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37">
       <c r="A4" s="15" t="s">
         <v>81</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46">
         <v>8430</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="46">
         <v>9452</v>
       </c>
-      <c r="H4" s="49">
+      <c r="H4" s="46">
         <v>10148</v>
       </c>
-      <c r="I4" s="49">
+      <c r="I4" s="46">
         <v>11040</v>
       </c>
-      <c r="J4" s="49">
+      <c r="J4" s="46">
         <v>11816</v>
       </c>
-      <c r="K4" s="49">
+      <c r="K4" s="46">
         <v>12578</v>
       </c>
-      <c r="L4" s="49">
+      <c r="L4" s="46">
         <v>13326</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="46">
         <v>14108</v>
       </c>
-      <c r="N4" s="49">
+      <c r="N4" s="46">
         <v>14920</v>
       </c>
-      <c r="O4" s="49">
+      <c r="O4" s="46">
         <v>15850</v>
       </c>
-      <c r="P4" s="49">
+      <c r="P4" s="46">
         <v>16630</v>
       </c>
-      <c r="Q4" s="49">
+      <c r="Q4" s="46">
         <v>17910</v>
       </c>
-      <c r="R4" s="49">
+      <c r="R4" s="46">
         <v>19060</v>
       </c>
-      <c r="S4" s="49">
+      <c r="S4" s="46">
         <v>20310</v>
       </c>
-      <c r="T4" s="49">
+      <c r="T4" s="46">
         <v>21780</v>
       </c>
-      <c r="U4" s="49">
+      <c r="U4" s="46">
         <v>23340</v>
       </c>
-      <c r="V4" s="49">
+      <c r="V4" s="46">
         <v>24920</v>
       </c>
-      <c r="W4" s="49">
+      <c r="W4" s="46">
         <v>26960</v>
       </c>
-      <c r="X4" s="49">
+      <c r="X4" s="46">
         <v>28760</v>
       </c>
-      <c r="Y4" s="49">
+      <c r="Y4" s="46">
         <v>31180</v>
       </c>
-      <c r="Z4" s="49">
+      <c r="Z4" s="46">
         <v>33500</v>
       </c>
-      <c r="AA4" s="49">
+      <c r="AA4" s="46">
         <v>34770</v>
       </c>
-      <c r="AB4" s="49">
+      <c r="AB4" s="46">
         <v>36380</v>
       </c>
-      <c r="AC4" s="49">
+      <c r="AC4" s="46">
         <v>37424</v>
       </c>
-      <c r="AD4" s="49">
+      <c r="AD4" s="46">
         <v>38884</v>
       </c>
-      <c r="AE4" s="49">
+      <c r="AE4" s="46">
         <v>40294</v>
       </c>
-      <c r="AF4" s="49">
+      <c r="AF4" s="46">
         <v>41450</v>
       </c>
-      <c r="AG4" s="49">
+      <c r="AG4" s="46">
         <v>44494</v>
       </c>
-      <c r="AH4" s="49">
+      <c r="AH4" s="46">
         <v>46250</v>
       </c>
-      <c r="AI4" s="49">
+      <c r="AI4" s="46">
         <v>48066</v>
       </c>
       <c r="AJ4" s="17">
@@ -57276,104 +57881,104 @@
         <v>4.7017793594306045</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37">
       <c r="A5" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49">
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46">
         <v>8074.1819999999998</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="46">
         <v>8876.4549999999999</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="46">
         <v>9803.9089999999997</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="46">
         <v>10693.091</v>
       </c>
-      <c r="J5" s="49">
+      <c r="J5" s="46">
         <v>11438.909</v>
       </c>
-      <c r="K5" s="49">
+      <c r="K5" s="46">
         <v>12223.227000000001</v>
       </c>
-      <c r="L5" s="49">
+      <c r="L5" s="46">
         <v>12989.045</v>
       </c>
-      <c r="M5" s="49">
+      <c r="M5" s="46">
         <v>13896.772999999999</v>
       </c>
-      <c r="N5" s="49">
+      <c r="N5" s="46">
         <v>14843.727000000001</v>
       </c>
-      <c r="O5" s="49">
+      <c r="O5" s="46">
         <v>15679.591</v>
       </c>
-      <c r="P5" s="49">
+      <c r="P5" s="46">
         <v>16532.591</v>
       </c>
-      <c r="Q5" s="49">
+      <c r="Q5" s="46">
         <v>17498.955000000002</v>
       </c>
-      <c r="R5" s="49">
+      <c r="R5" s="46">
         <v>18489.135999999999</v>
       </c>
-      <c r="S5" s="49">
+      <c r="S5" s="46">
         <v>19671.591</v>
       </c>
-      <c r="T5" s="49">
+      <c r="T5" s="46">
         <v>21000.455000000002</v>
       </c>
-      <c r="U5" s="49">
+      <c r="U5" s="46">
         <v>22421.909</v>
       </c>
-      <c r="V5" s="49">
+      <c r="V5" s="46">
         <v>23915</v>
       </c>
-      <c r="W5" s="49">
+      <c r="W5" s="46">
         <v>25435.623</v>
       </c>
-      <c r="X5" s="49">
+      <c r="X5" s="46">
         <v>27138.591</v>
       </c>
-      <c r="Y5" s="49">
+      <c r="Y5" s="46">
         <v>28867.773000000001</v>
       </c>
-      <c r="Z5" s="49">
+      <c r="Z5" s="46">
         <v>30750.773000000001</v>
       </c>
-      <c r="AA5" s="49">
+      <c r="AA5" s="46">
         <v>31974.909</v>
       </c>
-      <c r="AB5" s="49">
+      <c r="AB5" s="46">
         <v>33336.135999999999</v>
       </c>
-      <c r="AC5" s="49">
+      <c r="AC5" s="46">
         <v>34752</v>
       </c>
-      <c r="AD5" s="49">
+      <c r="AD5" s="46">
         <v>36180.273000000001</v>
       </c>
-      <c r="AE5" s="49">
+      <c r="AE5" s="46">
         <v>37422</v>
       </c>
-      <c r="AF5" s="49">
+      <c r="AF5" s="46">
         <v>38693.544999999998</v>
       </c>
-      <c r="AG5" s="49">
+      <c r="AG5" s="46">
         <v>41342.273000000001</v>
       </c>
-      <c r="AH5" s="49">
+      <c r="AH5" s="46">
         <v>42765.317999999999</v>
       </c>
-      <c r="AI5" s="49">
+      <c r="AI5" s="46">
         <v>43592.455000000002</v>
       </c>
       <c r="AJ5" s="17"/>
@@ -57382,46 +57987,46 @@
         <v>4.3989933593272976</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37">
       <c r="A6" s="15"/>
       <c r="B6" s="40"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="49"/>
-      <c r="AI6" s="49"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="46"/>
+      <c r="AI6" s="46"/>
       <c r="AJ6" s="17"/>
       <c r="AK6" s="42"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37">
       <c r="A7" s="15" t="s">
         <v>40</v>
       </c>
@@ -57535,7 +58140,7 @@
         <v>1.1680851063829787</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37">
       <c r="A8" s="27" t="s">
         <v>41</v>
       </c>
@@ -57647,6 +58252,745 @@
       <c r="AK8" s="42">
         <f>SUM(AJ8-F8)/F8</f>
         <v>1.0050949513663734</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="A9" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>106.69999999999999</v>
+      </c>
+      <c r="H11">
+        <v>112.19999999999999</v>
+      </c>
+      <c r="I11">
+        <v>116.30000000000001</v>
+      </c>
+      <c r="J11">
+        <v>120.5</v>
+      </c>
+      <c r="K11">
+        <v>124.19999999999999</v>
+      </c>
+      <c r="L11">
+        <v>128.4</v>
+      </c>
+      <c r="M11">
+        <v>132.9</v>
+      </c>
+      <c r="N11">
+        <v>136.5</v>
+      </c>
+      <c r="O11">
+        <v>139</v>
+      </c>
+      <c r="P11">
+        <v>142.6</v>
+      </c>
+      <c r="Q11">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="R11">
+        <v>153.1</v>
+      </c>
+      <c r="S11">
+        <v>155.88</v>
+      </c>
+      <c r="T11">
+        <v>159.96</v>
+      </c>
+      <c r="U11">
+        <v>164.9</v>
+      </c>
+      <c r="V11">
+        <v>171.3</v>
+      </c>
+      <c r="W11">
+        <v>177.6</v>
+      </c>
+      <c r="X11">
+        <v>183.34200000000001</v>
+      </c>
+      <c r="Y11">
+        <v>191.303</v>
+      </c>
+      <c r="Z11">
+        <v>190.53700000000001</v>
+      </c>
+      <c r="AA11">
+        <v>194.05600000000001</v>
+      </c>
+      <c r="AB11">
+        <v>200.93899999999999</v>
+      </c>
+      <c r="AC11">
+        <v>205.59399999999999</v>
+      </c>
+      <c r="AD11">
+        <v>208.95699999999999</v>
+      </c>
+      <c r="AE11">
+        <v>212.73599999999999</v>
+      </c>
+      <c r="AF11">
+        <v>213.017</v>
+      </c>
+      <c r="AG11">
+        <v>216.00800000000001</v>
+      </c>
+      <c r="AH11">
+        <v>221.12</v>
+      </c>
+      <c r="AI11">
+        <v>227.107</v>
+      </c>
+      <c r="AJ11">
+        <v>231.65700000000001</v>
+      </c>
+      <c r="AK11">
+        <f>SUM(AJ11-F11)/F11</f>
+        <v>1.31657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
+      <c r="A12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="46">
+        <f>SUM(F2*F$11)/100</f>
+        <v>4560</v>
+      </c>
+      <c r="G12" s="46">
+        <f t="shared" ref="G12:AI15" si="0">SUM(G2*G$11)/100</f>
+        <v>5196.2899999999991</v>
+      </c>
+      <c r="H12" s="46">
+        <f t="shared" si="0"/>
+        <v>5957.8199999999988</v>
+      </c>
+      <c r="I12" s="46">
+        <f t="shared" si="0"/>
+        <v>6582.5800000000008</v>
+      </c>
+      <c r="J12" s="46">
+        <f t="shared" si="0"/>
+        <v>7217.95</v>
+      </c>
+      <c r="K12" s="46">
+        <f t="shared" si="0"/>
+        <v>7824.5999999999985</v>
+      </c>
+      <c r="L12" s="46">
+        <f t="shared" si="0"/>
+        <v>8461.56</v>
+      </c>
+      <c r="M12" s="46">
+        <f t="shared" si="0"/>
+        <v>9130.23</v>
+      </c>
+      <c r="N12" s="46">
+        <f t="shared" si="0"/>
+        <v>9841.65</v>
+      </c>
+      <c r="O12" s="46">
+        <f t="shared" si="0"/>
+        <v>10425</v>
+      </c>
+      <c r="P12" s="46">
+        <f t="shared" si="0"/>
+        <v>11122.8</v>
+      </c>
+      <c r="Q12" s="46">
+        <f t="shared" si="0"/>
+        <v>11930.1</v>
+      </c>
+      <c r="R12" s="46">
+        <f t="shared" si="0"/>
+        <v>13135.98</v>
+      </c>
+      <c r="S12" s="46">
+        <f t="shared" si="0"/>
+        <v>14216.255999999999</v>
+      </c>
+      <c r="T12" s="46">
+        <f t="shared" si="0"/>
+        <v>15916.02</v>
+      </c>
+      <c r="U12" s="46">
+        <f t="shared" si="0"/>
+        <v>17561.849999999999</v>
+      </c>
+      <c r="V12" s="46">
+        <f t="shared" si="0"/>
+        <v>19408.29</v>
+      </c>
+      <c r="W12" s="46">
+        <f t="shared" si="0"/>
+        <v>21187.68</v>
+      </c>
+      <c r="X12" s="46">
+        <f t="shared" si="0"/>
+        <v>23284.434000000005</v>
+      </c>
+      <c r="Y12" s="46">
+        <f t="shared" si="0"/>
+        <v>25749.3838</v>
+      </c>
+      <c r="Z12" s="46">
+        <f t="shared" si="0"/>
+        <v>27189.629900000004</v>
+      </c>
+      <c r="AA12" s="46">
+        <f t="shared" si="0"/>
+        <v>29302.456000000002</v>
+      </c>
+      <c r="AB12" s="46">
+        <f t="shared" si="0"/>
+        <v>31909.1132</v>
+      </c>
+      <c r="AC12" s="46">
+        <f t="shared" si="0"/>
+        <v>34025.807000000001</v>
+      </c>
+      <c r="AD12" s="46">
+        <f t="shared" si="0"/>
+        <v>35648.064200000001</v>
+      </c>
+      <c r="AE12" s="46">
+        <f t="shared" si="0"/>
+        <v>37462.809600000001</v>
+      </c>
+      <c r="AF12" s="46">
+        <f t="shared" si="0"/>
+        <v>38726.490599999997</v>
+      </c>
+      <c r="AG12" s="46">
+        <f t="shared" si="0"/>
+        <v>40587.903200000001</v>
+      </c>
+      <c r="AH12" s="46">
+        <f t="shared" si="0"/>
+        <v>42720.384000000005</v>
+      </c>
+      <c r="AI12" s="46">
+        <f t="shared" si="0"/>
+        <v>45126.160899999995</v>
+      </c>
+      <c r="AJ12" s="46"/>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="46">
+        <f>SUM(F3*F$11)/100</f>
+        <v>10470</v>
+      </c>
+      <c r="G13" s="46">
+        <f t="shared" si="0"/>
+        <v>12163.799999999997</v>
+      </c>
+      <c r="H13" s="46">
+        <f t="shared" si="0"/>
+        <v>13564.979999999998</v>
+      </c>
+      <c r="I13" s="46">
+        <f t="shared" si="0"/>
+        <v>15072.480000000003</v>
+      </c>
+      <c r="J13" s="46">
+        <f t="shared" si="0"/>
+        <v>16400.05</v>
+      </c>
+      <c r="K13" s="46">
+        <f t="shared" si="0"/>
+        <v>17859.96</v>
+      </c>
+      <c r="L13" s="46">
+        <f t="shared" si="0"/>
+        <v>19349.88</v>
+      </c>
+      <c r="M13" s="46">
+        <f t="shared" si="0"/>
+        <v>21104.52</v>
+      </c>
+      <c r="N13" s="46">
+        <f t="shared" si="0"/>
+        <v>22768.2</v>
+      </c>
+      <c r="O13" s="46">
+        <f t="shared" si="0"/>
+        <v>24102.6</v>
+      </c>
+      <c r="P13" s="46">
+        <f t="shared" si="0"/>
+        <v>25924.68</v>
+      </c>
+      <c r="Q13" s="46">
+        <f t="shared" si="0"/>
+        <v>28484.04</v>
+      </c>
+      <c r="R13" s="46">
+        <f t="shared" si="0"/>
+        <v>31645.77</v>
+      </c>
+      <c r="S13" s="46">
+        <f t="shared" si="0"/>
+        <v>33919.487999999998</v>
+      </c>
+      <c r="T13" s="46">
+        <f t="shared" si="0"/>
+        <v>36134.964000000007</v>
+      </c>
+      <c r="U13" s="46">
+        <f t="shared" si="0"/>
+        <v>39411.1</v>
+      </c>
+      <c r="V13" s="46">
+        <f t="shared" si="0"/>
+        <v>43099.08</v>
+      </c>
+      <c r="W13" s="46">
+        <f t="shared" si="0"/>
+        <v>47277.120000000003</v>
+      </c>
+      <c r="X13" s="46">
+        <f t="shared" si="0"/>
+        <v>50199.039599999996</v>
+      </c>
+      <c r="Y13" s="46">
+        <f t="shared" si="0"/>
+        <v>55630.912400000001</v>
+      </c>
+      <c r="Z13" s="46">
+        <f t="shared" si="0"/>
+        <v>57999.462800000001</v>
+      </c>
+      <c r="AA13" s="46">
+        <f t="shared" si="0"/>
+        <v>61632.185600000004</v>
+      </c>
+      <c r="AB13" s="46">
+        <f t="shared" si="0"/>
+        <v>66068.743199999997</v>
+      </c>
+      <c r="AC13" s="46">
+        <f t="shared" si="0"/>
+        <v>69675.806599999996</v>
+      </c>
+      <c r="AD13" s="46">
+        <f t="shared" si="0"/>
+        <v>73197.637099999993</v>
+      </c>
+      <c r="AE13" s="46">
+        <f t="shared" si="0"/>
+        <v>76925.337599999999</v>
+      </c>
+      <c r="AF13" s="46">
+        <f t="shared" si="0"/>
+        <v>79647.056299999997</v>
+      </c>
+      <c r="AG13" s="46">
+        <f t="shared" si="0"/>
+        <v>85107.152000000016</v>
+      </c>
+      <c r="AH13" s="46">
+        <f t="shared" si="0"/>
+        <v>90836.09599999999</v>
+      </c>
+      <c r="AI13" s="46">
+        <f t="shared" si="0"/>
+        <v>95612.046999999991</v>
+      </c>
+      <c r="AJ13" s="46"/>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="A14" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="46">
+        <f>SUM(F4*F$11)/100</f>
+        <v>8430</v>
+      </c>
+      <c r="G14" s="46">
+        <f t="shared" si="0"/>
+        <v>10085.284</v>
+      </c>
+      <c r="H14" s="46">
+        <f t="shared" si="0"/>
+        <v>11386.055999999999</v>
+      </c>
+      <c r="I14" s="46">
+        <f t="shared" si="0"/>
+        <v>12839.520000000002</v>
+      </c>
+      <c r="J14" s="46">
+        <f t="shared" si="0"/>
+        <v>14238.28</v>
+      </c>
+      <c r="K14" s="46">
+        <f t="shared" si="0"/>
+        <v>15621.875999999998</v>
+      </c>
+      <c r="L14" s="46">
+        <f t="shared" si="0"/>
+        <v>17110.584000000003</v>
+      </c>
+      <c r="M14" s="46">
+        <f t="shared" si="0"/>
+        <v>18749.532000000003</v>
+      </c>
+      <c r="N14" s="46">
+        <f t="shared" si="0"/>
+        <v>20365.8</v>
+      </c>
+      <c r="O14" s="46">
+        <f t="shared" si="0"/>
+        <v>22031.5</v>
+      </c>
+      <c r="P14" s="46">
+        <f t="shared" si="0"/>
+        <v>23714.38</v>
+      </c>
+      <c r="Q14" s="46">
+        <f t="shared" si="0"/>
+        <v>26542.62</v>
+      </c>
+      <c r="R14" s="46">
+        <f t="shared" si="0"/>
+        <v>29180.86</v>
+      </c>
+      <c r="S14" s="46">
+        <f t="shared" si="0"/>
+        <v>31659.227999999999</v>
+      </c>
+      <c r="T14" s="46">
+        <f t="shared" si="0"/>
+        <v>34839.288</v>
+      </c>
+      <c r="U14" s="46">
+        <f t="shared" si="0"/>
+        <v>38487.660000000003</v>
+      </c>
+      <c r="V14" s="46">
+        <f t="shared" si="0"/>
+        <v>42687.96</v>
+      </c>
+      <c r="W14" s="46">
+        <f t="shared" si="0"/>
+        <v>47880.959999999999</v>
+      </c>
+      <c r="X14" s="46">
+        <f t="shared" si="0"/>
+        <v>52729.159200000002</v>
+      </c>
+      <c r="Y14" s="46">
+        <f t="shared" si="0"/>
+        <v>59648.275399999999</v>
+      </c>
+      <c r="Z14" s="46">
+        <f t="shared" si="0"/>
+        <v>63829.894999999997</v>
+      </c>
+      <c r="AA14" s="46">
+        <f t="shared" si="0"/>
+        <v>67473.271200000003</v>
+      </c>
+      <c r="AB14" s="46">
+        <f t="shared" si="0"/>
+        <v>73101.608199999988</v>
+      </c>
+      <c r="AC14" s="46">
+        <f t="shared" si="0"/>
+        <v>76941.498559999993</v>
+      </c>
+      <c r="AD14" s="46">
+        <f t="shared" si="0"/>
+        <v>81250.83988</v>
+      </c>
+      <c r="AE14" s="46">
+        <f t="shared" si="0"/>
+        <v>85719.843840000001</v>
+      </c>
+      <c r="AF14" s="46">
+        <f t="shared" si="0"/>
+        <v>88295.546499999997</v>
+      </c>
+      <c r="AG14" s="46">
+        <f t="shared" si="0"/>
+        <v>96110.599519999989</v>
+      </c>
+      <c r="AH14" s="46">
+        <f t="shared" si="0"/>
+        <v>102268</v>
+      </c>
+      <c r="AI14" s="46">
+        <f t="shared" si="0"/>
+        <v>109161.25062000001</v>
+      </c>
+      <c r="AJ14" s="46"/>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="A15" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="46">
+        <f>SUM(F5*F$11)/100</f>
+        <v>8074.1819999999998</v>
+      </c>
+      <c r="G15" s="46">
+        <f t="shared" si="0"/>
+        <v>9471.1774849999983</v>
+      </c>
+      <c r="H15" s="46">
+        <f t="shared" si="0"/>
+        <v>10999.985897999999</v>
+      </c>
+      <c r="I15" s="46">
+        <f t="shared" si="0"/>
+        <v>12436.064833000002</v>
+      </c>
+      <c r="J15" s="46">
+        <f t="shared" si="0"/>
+        <v>13783.885345000001</v>
+      </c>
+      <c r="K15" s="46">
+        <f t="shared" si="0"/>
+        <v>15181.247933999999</v>
+      </c>
+      <c r="L15" s="46">
+        <f t="shared" si="0"/>
+        <v>16677.933779999999</v>
+      </c>
+      <c r="M15" s="46">
+        <f t="shared" si="0"/>
+        <v>18468.811317</v>
+      </c>
+      <c r="N15" s="46">
+        <f t="shared" si="0"/>
+        <v>20261.687355000002</v>
+      </c>
+      <c r="O15" s="46">
+        <f t="shared" si="0"/>
+        <v>21794.631490000003</v>
+      </c>
+      <c r="P15" s="46">
+        <f t="shared" si="0"/>
+        <v>23575.474766000003</v>
+      </c>
+      <c r="Q15" s="46">
+        <f t="shared" si="0"/>
+        <v>25933.45131</v>
+      </c>
+      <c r="R15" s="46">
+        <f t="shared" si="0"/>
+        <v>28306.867215999999</v>
+      </c>
+      <c r="S15" s="46">
+        <f t="shared" si="0"/>
+        <v>30664.076050800002</v>
+      </c>
+      <c r="T15" s="46">
+        <f t="shared" si="0"/>
+        <v>33592.327818000005</v>
+      </c>
+      <c r="U15" s="46">
+        <f t="shared" si="0"/>
+        <v>36973.727940999997</v>
+      </c>
+      <c r="V15" s="46">
+        <f t="shared" si="0"/>
+        <v>40966.395000000004</v>
+      </c>
+      <c r="W15" s="46">
+        <f t="shared" si="0"/>
+        <v>45173.666447999996</v>
+      </c>
+      <c r="X15" s="46">
+        <f t="shared" si="0"/>
+        <v>49756.435511220006</v>
+      </c>
+      <c r="Y15" s="46">
+        <f t="shared" si="0"/>
+        <v>55224.915782190001</v>
+      </c>
+      <c r="Z15" s="46">
+        <f t="shared" si="0"/>
+        <v>58591.600351010005</v>
+      </c>
+      <c r="AA15" s="46">
+        <f t="shared" si="0"/>
+        <v>62049.229409039996</v>
+      </c>
+      <c r="AB15" s="46">
+        <f t="shared" si="0"/>
+        <v>66985.298317039997</v>
+      </c>
+      <c r="AC15" s="46">
+        <f t="shared" si="0"/>
+        <v>71448.026880000005</v>
+      </c>
+      <c r="AD15" s="46">
+        <f t="shared" si="0"/>
+        <v>75601.213052609994</v>
+      </c>
+      <c r="AE15" s="46">
+        <f t="shared" si="0"/>
+        <v>79610.065919999994</v>
+      </c>
+      <c r="AF15" s="46">
+        <f t="shared" si="0"/>
+        <v>82423.828752649992</v>
+      </c>
+      <c r="AG15" s="46">
+        <f t="shared" si="0"/>
+        <v>89302.617061839992</v>
+      </c>
+      <c r="AH15" s="46">
+        <f t="shared" si="0"/>
+        <v>94562.671161599996</v>
+      </c>
+      <c r="AI15" s="46">
+        <f t="shared" si="0"/>
+        <v>99001.516776849996</v>
+      </c>
+      <c r="AJ15" s="46"/>
+    </row>
+    <row r="17" spans="1:37">
+      <c r="A17" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17">
+        <v>55716</v>
+      </c>
+      <c r="D17">
+        <v>56678</v>
+      </c>
+      <c r="E17">
+        <v>55952</v>
+      </c>
+      <c r="F17">
+        <v>54318</v>
+      </c>
+      <c r="G17">
+        <v>53897</v>
+      </c>
+      <c r="H17">
+        <v>53610</v>
+      </c>
+      <c r="I17">
+        <v>54233</v>
+      </c>
+      <c r="J17">
+        <v>55931</v>
+      </c>
+      <c r="K17">
+        <v>56744</v>
+      </c>
+      <c r="L17">
+        <v>57911</v>
+      </c>
+      <c r="M17">
+        <v>60040</v>
+      </c>
+      <c r="N17">
+        <v>61526</v>
+      </c>
+      <c r="O17">
+        <v>61399</v>
+      </c>
+      <c r="P17">
+        <v>60038</v>
+      </c>
+      <c r="Q17">
+        <v>59360</v>
+      </c>
+      <c r="R17">
+        <v>59286</v>
+      </c>
+      <c r="S17">
+        <v>59080</v>
+      </c>
+      <c r="T17">
+        <v>59712</v>
+      </c>
+      <c r="U17">
+        <v>60178</v>
+      </c>
+      <c r="V17">
+        <v>60985</v>
+      </c>
+      <c r="W17">
+        <v>58811</v>
+      </c>
+      <c r="X17">
+        <v>58400</v>
+      </c>
+      <c r="Y17">
+        <v>56873</v>
+      </c>
+      <c r="Z17">
+        <v>56006</v>
+      </c>
+      <c r="AA17">
+        <v>55900</v>
+      </c>
+      <c r="AB17">
+        <v>57856</v>
+      </c>
+      <c r="AC17">
+        <v>56079</v>
+      </c>
+      <c r="AD17">
+        <v>56969</v>
+      </c>
+      <c r="AE17">
+        <v>59901</v>
+      </c>
+      <c r="AF17">
+        <v>61779</v>
+      </c>
+      <c r="AG17">
+        <v>62626</v>
+      </c>
+      <c r="AH17">
+        <v>62868</v>
+      </c>
+      <c r="AI17">
+        <v>63179</v>
+      </c>
+      <c r="AK17" s="42">
+        <f>SUM(AI17-F17)/F17</f>
+        <v>0.16313192680142863</v>
       </c>
     </row>
   </sheetData>
@@ -57656,346 +59000,2636 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B090F7-DE90-DB43-BB8A-9903AF92B7A6}">
-  <dimension ref="A1:C30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C30"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="46">
-        <v>1</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="47">
-        <v>8074.1819999999998</v>
+    <row r="1" spans="1:18">
+      <c r="P1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="46">
-        <v>2</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="47">
-        <v>8876.4549999999999</v>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A2" s="52">
+        <v>1987</v>
+      </c>
+      <c r="B2" s="52">
+        <v>111.2</v>
+      </c>
+      <c r="C2" s="52">
+        <v>111.6</v>
+      </c>
+      <c r="D2" s="52">
+        <v>112.1</v>
+      </c>
+      <c r="E2" s="52">
+        <v>112.7</v>
+      </c>
+      <c r="F2" s="52">
+        <v>113.1</v>
+      </c>
+      <c r="G2" s="52">
+        <v>113.5</v>
+      </c>
+      <c r="H2" s="52">
+        <v>113.8</v>
+      </c>
+      <c r="I2" s="52">
+        <v>114.4</v>
+      </c>
+      <c r="J2" s="52">
+        <v>115</v>
+      </c>
+      <c r="K2" s="52">
+        <v>115.3</v>
+      </c>
+      <c r="L2" s="52">
+        <v>115.4</v>
+      </c>
+      <c r="M2" s="52">
+        <v>115.4</v>
+      </c>
+      <c r="N2" s="52">
+        <v>113.6</v>
+      </c>
+      <c r="O2" s="53">
+        <v>113.6</v>
+      </c>
+      <c r="P2" s="53">
+        <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="46">
-        <v>3</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="47">
-        <v>9803.9089999999997</v>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A3" s="51">
+        <v>1988</v>
+      </c>
+      <c r="B3" s="51">
+        <v>115.7</v>
+      </c>
+      <c r="C3" s="51">
+        <v>116</v>
+      </c>
+      <c r="D3" s="51">
+        <v>116.5</v>
+      </c>
+      <c r="E3" s="51">
+        <v>117.1</v>
+      </c>
+      <c r="F3" s="51">
+        <v>117.5</v>
+      </c>
+      <c r="G3" s="51">
+        <v>118</v>
+      </c>
+      <c r="H3" s="51">
+        <v>118.5</v>
+      </c>
+      <c r="I3" s="51">
+        <v>119</v>
+      </c>
+      <c r="J3" s="51">
+        <v>119.8</v>
+      </c>
+      <c r="K3" s="51">
+        <v>120.2</v>
+      </c>
+      <c r="L3" s="51">
+        <v>120.3</v>
+      </c>
+      <c r="M3" s="51">
+        <v>120.5</v>
+      </c>
+      <c r="N3" s="51">
+        <v>118.3</v>
+      </c>
+      <c r="O3">
+        <f>SUM(N3-N2)</f>
+        <v>4.7000000000000028</v>
+      </c>
+      <c r="P3">
+        <f>SUM(P2+O3)</f>
+        <v>104.7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="46">
-        <v>4</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="47">
-        <v>10693.091</v>
+    <row r="4" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A4" s="50">
+        <v>1989</v>
+      </c>
+      <c r="B4" s="50">
+        <v>121.1</v>
+      </c>
+      <c r="C4" s="50">
+        <v>121.6</v>
+      </c>
+      <c r="D4" s="50">
+        <v>122.3</v>
+      </c>
+      <c r="E4" s="50">
+        <v>123.1</v>
+      </c>
+      <c r="F4" s="50">
+        <v>123.8</v>
+      </c>
+      <c r="G4" s="50">
+        <v>124.1</v>
+      </c>
+      <c r="H4" s="50">
+        <v>124.4</v>
+      </c>
+      <c r="I4" s="50">
+        <v>124.6</v>
+      </c>
+      <c r="J4" s="50">
+        <v>125</v>
+      </c>
+      <c r="K4" s="50">
+        <v>125.6</v>
+      </c>
+      <c r="L4" s="50">
+        <v>125.9</v>
+      </c>
+      <c r="M4" s="50">
+        <v>126.1</v>
+      </c>
+      <c r="N4" s="50">
+        <v>124</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O34" si="0">SUM(N4-N3)</f>
+        <v>5.7000000000000028</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P34" si="1">SUM(P3+O4)</f>
+        <v>110.4</v>
+      </c>
+      <c r="R4">
+        <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="46">
-        <v>5</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="47">
-        <v>11438.909</v>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A5" s="51">
+        <v>1990</v>
+      </c>
+      <c r="B5" s="51">
+        <v>127.4</v>
+      </c>
+      <c r="C5" s="51">
+        <v>128</v>
+      </c>
+      <c r="D5" s="51">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="E5" s="51">
+        <v>128.9</v>
+      </c>
+      <c r="F5" s="51">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="G5" s="51">
+        <v>129.9</v>
+      </c>
+      <c r="H5" s="51">
+        <v>130.4</v>
+      </c>
+      <c r="I5" s="51">
+        <v>131.6</v>
+      </c>
+      <c r="J5" s="51">
+        <v>132.69999999999999</v>
+      </c>
+      <c r="K5" s="51">
+        <v>133.5</v>
+      </c>
+      <c r="L5" s="51">
+        <v>133.80000000000001</v>
+      </c>
+      <c r="M5" s="51">
+        <v>133.80000000000001</v>
+      </c>
+      <c r="N5" s="51">
+        <v>130.69999999999999</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>6.6999999999999886</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>117.1</v>
+      </c>
+      <c r="R5">
+        <f>SUM(R4+O5)</f>
+        <v>106.69999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="46">
-        <v>6</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="47">
-        <v>12223.227000000001</v>
+    <row r="6" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A6" s="50">
+        <v>1991</v>
+      </c>
+      <c r="B6" s="50">
+        <v>134.6</v>
+      </c>
+      <c r="C6" s="50">
+        <v>134.80000000000001</v>
+      </c>
+      <c r="D6" s="50">
+        <v>135</v>
+      </c>
+      <c r="E6" s="50">
+        <v>135.19999999999999</v>
+      </c>
+      <c r="F6" s="50">
+        <v>135.6</v>
+      </c>
+      <c r="G6" s="50">
+        <v>136</v>
+      </c>
+      <c r="H6" s="50">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="I6" s="50">
+        <v>136.6</v>
+      </c>
+      <c r="J6" s="50">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="K6" s="50">
+        <v>137.4</v>
+      </c>
+      <c r="L6" s="50">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="M6" s="50">
+        <v>137.9</v>
+      </c>
+      <c r="N6" s="50">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>122.6</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ref="R6:R34" si="2">SUM(R5+O6)</f>
+        <v>112.19999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="46">
-        <v>7</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="47">
-        <v>12989.045</v>
+    <row r="7" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A7" s="51">
+        <v>1992</v>
+      </c>
+      <c r="B7" s="51">
+        <v>138.1</v>
+      </c>
+      <c r="C7" s="51">
+        <v>138.6</v>
+      </c>
+      <c r="D7" s="51">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="E7" s="51">
+        <v>139.5</v>
+      </c>
+      <c r="F7" s="51">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="G7" s="51">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="H7" s="51">
+        <v>140.5</v>
+      </c>
+      <c r="I7" s="51">
+        <v>140.9</v>
+      </c>
+      <c r="J7" s="51">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="K7" s="51">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="L7" s="51">
+        <v>142</v>
+      </c>
+      <c r="M7" s="51">
+        <v>141.9</v>
+      </c>
+      <c r="N7" s="51">
+        <v>140.30000000000001</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>4.1000000000000227</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>126.70000000000002</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>116.30000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="46">
-        <v>8</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="47">
-        <v>13896.772999999999</v>
+    <row r="8" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A8" s="50">
+        <v>1993</v>
+      </c>
+      <c r="B8" s="50">
+        <v>142.6</v>
+      </c>
+      <c r="C8" s="50">
+        <v>143.1</v>
+      </c>
+      <c r="D8" s="50">
+        <v>143.6</v>
+      </c>
+      <c r="E8" s="50">
+        <v>144</v>
+      </c>
+      <c r="F8" s="50">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="G8" s="50">
+        <v>144.4</v>
+      </c>
+      <c r="H8" s="50">
+        <v>144.4</v>
+      </c>
+      <c r="I8" s="50">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="J8" s="50">
+        <v>145.1</v>
+      </c>
+      <c r="K8" s="50">
+        <v>145.69999999999999</v>
+      </c>
+      <c r="L8" s="50">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="M8" s="50">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="N8" s="50">
+        <v>144.5</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>4.1999999999999886</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>130.9</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>120.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="46">
-        <v>9</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="47">
-        <v>14843.727000000001</v>
+    <row r="9" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A9" s="51">
+        <v>1994</v>
+      </c>
+      <c r="B9" s="51">
+        <v>146.19999999999999</v>
+      </c>
+      <c r="C9" s="51">
+        <v>146.69999999999999</v>
+      </c>
+      <c r="D9" s="51">
+        <v>147.19999999999999</v>
+      </c>
+      <c r="E9" s="51">
+        <v>147.4</v>
+      </c>
+      <c r="F9" s="51">
+        <v>147.5</v>
+      </c>
+      <c r="G9" s="51">
+        <v>148</v>
+      </c>
+      <c r="H9" s="51">
+        <v>148.4</v>
+      </c>
+      <c r="I9" s="51">
+        <v>149</v>
+      </c>
+      <c r="J9" s="51">
+        <v>149.4</v>
+      </c>
+      <c r="K9" s="51">
+        <v>149.5</v>
+      </c>
+      <c r="L9" s="51">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="M9" s="51">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="N9" s="51">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>3.6999999999999886</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>134.6</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>124.19999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="46">
-        <v>10</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="47">
-        <v>15679.591</v>
+    <row r="10" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A10" s="50">
+        <v>1995</v>
+      </c>
+      <c r="B10" s="50">
+        <v>150.30000000000001</v>
+      </c>
+      <c r="C10" s="50">
+        <v>150.9</v>
+      </c>
+      <c r="D10" s="50">
+        <v>151.4</v>
+      </c>
+      <c r="E10" s="50">
+        <v>151.9</v>
+      </c>
+      <c r="F10" s="50">
+        <v>152.19999999999999</v>
+      </c>
+      <c r="G10" s="50">
+        <v>152.5</v>
+      </c>
+      <c r="H10" s="50">
+        <v>152.5</v>
+      </c>
+      <c r="I10" s="50">
+        <v>152.9</v>
+      </c>
+      <c r="J10" s="50">
+        <v>153.19999999999999</v>
+      </c>
+      <c r="K10" s="50">
+        <v>153.69999999999999</v>
+      </c>
+      <c r="L10" s="50">
+        <v>153.6</v>
+      </c>
+      <c r="M10" s="50">
+        <v>153.5</v>
+      </c>
+      <c r="N10" s="50">
+        <v>152.4</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>4.2000000000000171</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>138.80000000000001</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>128.4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="46">
-        <v>11</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="47">
-        <v>16532.591</v>
+    <row r="11" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A11" s="51">
+        <v>1996</v>
+      </c>
+      <c r="B11" s="51">
+        <v>154.4</v>
+      </c>
+      <c r="C11" s="51">
+        <v>154.9</v>
+      </c>
+      <c r="D11" s="51">
+        <v>155.69999999999999</v>
+      </c>
+      <c r="E11" s="51">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="F11" s="51">
+        <v>156.6</v>
+      </c>
+      <c r="G11" s="51">
+        <v>156.69999999999999</v>
+      </c>
+      <c r="H11" s="51">
+        <v>157</v>
+      </c>
+      <c r="I11" s="51">
+        <v>157.30000000000001</v>
+      </c>
+      <c r="J11" s="51">
+        <v>157.80000000000001</v>
+      </c>
+      <c r="K11" s="51">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="L11" s="51">
+        <v>158.6</v>
+      </c>
+      <c r="M11" s="51">
+        <v>158.6</v>
+      </c>
+      <c r="N11" s="51">
+        <v>156.9</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>143.30000000000001</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>132.9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="46">
-        <v>12</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="47">
-        <v>17498.955000000002</v>
+    <row r="12" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A12" s="50">
+        <v>1997</v>
+      </c>
+      <c r="B12" s="50">
+        <v>159.1</v>
+      </c>
+      <c r="C12" s="50">
+        <v>159.6</v>
+      </c>
+      <c r="D12" s="50">
+        <v>160</v>
+      </c>
+      <c r="E12" s="50">
+        <v>160.19999999999999</v>
+      </c>
+      <c r="F12" s="50">
+        <v>160.1</v>
+      </c>
+      <c r="G12" s="50">
+        <v>160.30000000000001</v>
+      </c>
+      <c r="H12" s="50">
+        <v>160.5</v>
+      </c>
+      <c r="I12" s="50">
+        <v>160.80000000000001</v>
+      </c>
+      <c r="J12" s="50">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="K12" s="50">
+        <v>161.6</v>
+      </c>
+      <c r="L12" s="50">
+        <v>161.5</v>
+      </c>
+      <c r="M12" s="50">
+        <v>161.30000000000001</v>
+      </c>
+      <c r="N12" s="50">
+        <v>160.5</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999943</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>146.9</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>136.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="46">
-        <v>13</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="47">
-        <v>18489.135999999999</v>
+    <row r="13" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A13" s="51">
+        <v>1998</v>
+      </c>
+      <c r="B13" s="51">
+        <v>161.6</v>
+      </c>
+      <c r="C13" s="51">
+        <v>161.9</v>
+      </c>
+      <c r="D13" s="51">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="E13" s="51">
+        <v>162.5</v>
+      </c>
+      <c r="F13" s="51">
+        <v>162.80000000000001</v>
+      </c>
+      <c r="G13" s="51">
+        <v>163</v>
+      </c>
+      <c r="H13" s="51">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="I13" s="51">
+        <v>163.4</v>
+      </c>
+      <c r="J13" s="51">
+        <v>163.6</v>
+      </c>
+      <c r="K13" s="51">
+        <v>164</v>
+      </c>
+      <c r="L13" s="51">
+        <v>164</v>
+      </c>
+      <c r="M13" s="51">
+        <v>163.9</v>
+      </c>
+      <c r="N13" s="51">
+        <v>163</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>149.4</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="46">
-        <v>14</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="47">
-        <v>19671.591</v>
+    <row r="14" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A14" s="50">
+        <v>1999</v>
+      </c>
+      <c r="B14" s="50">
+        <v>164.3</v>
+      </c>
+      <c r="C14" s="50">
+        <v>164.5</v>
+      </c>
+      <c r="D14" s="50">
+        <v>165</v>
+      </c>
+      <c r="E14" s="50">
+        <v>166.2</v>
+      </c>
+      <c r="F14" s="50">
+        <v>166.2</v>
+      </c>
+      <c r="G14" s="50">
+        <v>166.2</v>
+      </c>
+      <c r="H14" s="50">
+        <v>166.7</v>
+      </c>
+      <c r="I14" s="50">
+        <v>167.1</v>
+      </c>
+      <c r="J14" s="50">
+        <v>167.9</v>
+      </c>
+      <c r="K14" s="50">
+        <v>168.2</v>
+      </c>
+      <c r="L14" s="50">
+        <v>168.3</v>
+      </c>
+      <c r="M14" s="50">
+        <v>168.3</v>
+      </c>
+      <c r="N14" s="50">
+        <v>166.6</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999943</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>142.6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="46">
-        <v>15</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="47">
-        <v>21000.455000000002</v>
+    <row r="15" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A15" s="51">
+        <v>2000</v>
+      </c>
+      <c r="B15" s="51">
+        <v>168.8</v>
+      </c>
+      <c r="C15" s="51">
+        <v>169.8</v>
+      </c>
+      <c r="D15" s="51">
+        <v>171.2</v>
+      </c>
+      <c r="E15" s="51">
+        <v>171.3</v>
+      </c>
+      <c r="F15" s="51">
+        <v>171.5</v>
+      </c>
+      <c r="G15" s="51">
+        <v>172.4</v>
+      </c>
+      <c r="H15" s="51">
+        <v>172.8</v>
+      </c>
+      <c r="I15" s="51">
+        <v>172.8</v>
+      </c>
+      <c r="J15" s="51">
+        <v>173.7</v>
+      </c>
+      <c r="K15" s="51">
+        <v>174</v>
+      </c>
+      <c r="L15" s="51">
+        <v>174.1</v>
+      </c>
+      <c r="M15" s="51">
+        <v>174</v>
+      </c>
+      <c r="N15" s="51">
+        <v>172.2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>5.5999999999999943</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>158.6</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>148.19999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="46">
-        <v>16</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="47">
-        <v>22421.909</v>
+    <row r="16" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A16" s="50">
+        <v>2001</v>
+      </c>
+      <c r="B16" s="50">
+        <v>175.1</v>
+      </c>
+      <c r="C16" s="50">
+        <v>175.8</v>
+      </c>
+      <c r="D16" s="50">
+        <v>176.2</v>
+      </c>
+      <c r="E16" s="50">
+        <v>176.9</v>
+      </c>
+      <c r="F16" s="50">
+        <v>177.7</v>
+      </c>
+      <c r="G16" s="50">
+        <v>178</v>
+      </c>
+      <c r="H16" s="50">
+        <v>177.5</v>
+      </c>
+      <c r="I16" s="50">
+        <v>177.5</v>
+      </c>
+      <c r="J16" s="50">
+        <v>178.3</v>
+      </c>
+      <c r="K16" s="50">
+        <v>177.7</v>
+      </c>
+      <c r="L16" s="50">
+        <v>177.4</v>
+      </c>
+      <c r="M16" s="50">
+        <v>176.7</v>
+      </c>
+      <c r="N16" s="50">
+        <v>177.1</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>4.9000000000000057</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>163.5</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>153.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="46">
-        <v>17</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="47">
-        <v>23915</v>
+    <row r="17" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A17" s="51">
+        <v>2002</v>
+      </c>
+      <c r="B17" s="51">
+        <v>177.1</v>
+      </c>
+      <c r="C17" s="51">
+        <v>177.8</v>
+      </c>
+      <c r="D17" s="51">
+        <v>178.8</v>
+      </c>
+      <c r="E17" s="51">
+        <v>179.8</v>
+      </c>
+      <c r="F17" s="51">
+        <v>179.8</v>
+      </c>
+      <c r="G17" s="51">
+        <v>179.9</v>
+      </c>
+      <c r="H17" s="51">
+        <v>180.1</v>
+      </c>
+      <c r="I17" s="51">
+        <v>180.7</v>
+      </c>
+      <c r="J17" s="51">
+        <v>181</v>
+      </c>
+      <c r="K17" s="51">
+        <v>181.3</v>
+      </c>
+      <c r="L17" s="51">
+        <v>181.3</v>
+      </c>
+      <c r="M17" s="51">
+        <v>180.9</v>
+      </c>
+      <c r="N17" s="51">
+        <v>179.88</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>2.7800000000000011</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>166.28</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>155.88</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="46">
-        <v>18</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="47">
-        <v>25435.623</v>
+    <row r="18" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A18" s="50">
+        <v>2003</v>
+      </c>
+      <c r="B18" s="50">
+        <v>181.7</v>
+      </c>
+      <c r="C18" s="50">
+        <v>183.1</v>
+      </c>
+      <c r="D18" s="50">
+        <v>184.2</v>
+      </c>
+      <c r="E18" s="50">
+        <v>183.8</v>
+      </c>
+      <c r="F18" s="50">
+        <v>183.5</v>
+      </c>
+      <c r="G18" s="50">
+        <v>183.7</v>
+      </c>
+      <c r="H18" s="50">
+        <v>183.9</v>
+      </c>
+      <c r="I18" s="50">
+        <v>184.6</v>
+      </c>
+      <c r="J18" s="50">
+        <v>185.2</v>
+      </c>
+      <c r="K18" s="50">
+        <v>185</v>
+      </c>
+      <c r="L18" s="50">
+        <v>184.5</v>
+      </c>
+      <c r="M18" s="50">
+        <v>184.3</v>
+      </c>
+      <c r="N18" s="50">
+        <v>183.96</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>4.0800000000000125</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>170.36</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>159.96</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="46">
-        <v>19</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="47">
-        <v>27138.591</v>
+    <row r="19" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A19" s="51">
+        <v>2004</v>
+      </c>
+      <c r="B19" s="51">
+        <v>185.2</v>
+      </c>
+      <c r="C19" s="51">
+        <v>186.2</v>
+      </c>
+      <c r="D19" s="51">
+        <v>187.4</v>
+      </c>
+      <c r="E19" s="51">
+        <v>188</v>
+      </c>
+      <c r="F19" s="51">
+        <v>189.1</v>
+      </c>
+      <c r="G19" s="51">
+        <v>189.7</v>
+      </c>
+      <c r="H19" s="51">
+        <v>189.4</v>
+      </c>
+      <c r="I19" s="51">
+        <v>189.5</v>
+      </c>
+      <c r="J19" s="51">
+        <v>189.9</v>
+      </c>
+      <c r="K19" s="51">
+        <v>190.9</v>
+      </c>
+      <c r="L19" s="51">
+        <v>191</v>
+      </c>
+      <c r="M19" s="51">
+        <v>190.3</v>
+      </c>
+      <c r="N19" s="51">
+        <v>188.9</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>4.9399999999999977</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>175.3</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>164.9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="46">
-        <v>20</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="47">
-        <v>28867.773000000001</v>
+    <row r="20" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A20" s="50">
+        <v>2005</v>
+      </c>
+      <c r="B20" s="50">
+        <v>190.7</v>
+      </c>
+      <c r="C20" s="50">
+        <v>191.8</v>
+      </c>
+      <c r="D20" s="50">
+        <v>193.3</v>
+      </c>
+      <c r="E20" s="50">
+        <v>194.6</v>
+      </c>
+      <c r="F20" s="50">
+        <v>194.4</v>
+      </c>
+      <c r="G20" s="50">
+        <v>194.5</v>
+      </c>
+      <c r="H20" s="50">
+        <v>195.4</v>
+      </c>
+      <c r="I20" s="50">
+        <v>196.4</v>
+      </c>
+      <c r="J20" s="50">
+        <v>198.8</v>
+      </c>
+      <c r="K20" s="50">
+        <v>199.2</v>
+      </c>
+      <c r="L20" s="50">
+        <v>197.6</v>
+      </c>
+      <c r="M20" s="50">
+        <v>196.8</v>
+      </c>
+      <c r="N20" s="50">
+        <v>195.3</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>6.4000000000000057</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>181.70000000000002</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>171.3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="46">
-        <v>21</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="47">
-        <v>30750.773000000001</v>
+    <row r="21" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A21" s="51">
+        <v>2006</v>
+      </c>
+      <c r="B21" s="51">
+        <v>198.3</v>
+      </c>
+      <c r="C21" s="51">
+        <v>198.7</v>
+      </c>
+      <c r="D21" s="51">
+        <v>199.8</v>
+      </c>
+      <c r="E21" s="51">
+        <v>201.5</v>
+      </c>
+      <c r="F21" s="51">
+        <v>202.5</v>
+      </c>
+      <c r="G21" s="51">
+        <v>202.9</v>
+      </c>
+      <c r="H21" s="51">
+        <v>203.5</v>
+      </c>
+      <c r="I21" s="51">
+        <v>203.9</v>
+      </c>
+      <c r="J21" s="51">
+        <v>202.9</v>
+      </c>
+      <c r="K21" s="51">
+        <v>201.8</v>
+      </c>
+      <c r="L21" s="51">
+        <v>201.5</v>
+      </c>
+      <c r="M21" s="51">
+        <v>201.8</v>
+      </c>
+      <c r="N21" s="51">
+        <v>201.6</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>6.2999999999999829</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>188</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>177.6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="46">
-        <v>22</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="47">
-        <v>31974.909</v>
+    <row r="22" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A22" s="50">
+        <v>2007</v>
+      </c>
+      <c r="B22" s="50">
+        <v>202.416</v>
+      </c>
+      <c r="C22" s="50">
+        <v>203.499</v>
+      </c>
+      <c r="D22" s="50">
+        <v>205.352</v>
+      </c>
+      <c r="E22" s="50">
+        <v>206.68600000000001</v>
+      </c>
+      <c r="F22" s="50">
+        <v>207.94900000000001</v>
+      </c>
+      <c r="G22" s="50">
+        <v>208.352</v>
+      </c>
+      <c r="H22" s="50">
+        <v>208.29900000000001</v>
+      </c>
+      <c r="I22" s="50">
+        <v>207.917</v>
+      </c>
+      <c r="J22" s="50">
+        <v>208.49</v>
+      </c>
+      <c r="K22" s="50">
+        <v>208.93600000000001</v>
+      </c>
+      <c r="L22" s="50">
+        <v>210.17699999999999</v>
+      </c>
+      <c r="M22" s="50">
+        <v>210.036</v>
+      </c>
+      <c r="N22" s="50">
+        <v>207.34200000000001</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>5.7420000000000186</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>193.74200000000002</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>183.34200000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="46">
-        <v>23</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="47">
-        <v>33336.135999999999</v>
+    <row r="23" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A23" s="51">
+        <v>2008</v>
+      </c>
+      <c r="B23" s="51">
+        <v>211.08</v>
+      </c>
+      <c r="C23" s="51">
+        <v>211.69300000000001</v>
+      </c>
+      <c r="D23" s="51">
+        <v>213.52799999999999</v>
+      </c>
+      <c r="E23" s="51">
+        <v>214.82300000000001</v>
+      </c>
+      <c r="F23" s="51">
+        <v>216.63200000000001</v>
+      </c>
+      <c r="G23" s="51">
+        <v>218.815</v>
+      </c>
+      <c r="H23" s="51">
+        <v>219.964</v>
+      </c>
+      <c r="I23" s="51">
+        <v>219.08600000000001</v>
+      </c>
+      <c r="J23" s="51">
+        <v>218.78299999999999</v>
+      </c>
+      <c r="K23" s="51">
+        <v>216.57300000000001</v>
+      </c>
+      <c r="L23" s="51">
+        <v>212.42500000000001</v>
+      </c>
+      <c r="M23" s="51">
+        <v>210.22800000000001</v>
+      </c>
+      <c r="N23" s="51">
+        <v>215.303</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>7.9609999999999843</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>201.703</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>191.303</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="46">
-        <v>24</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="47">
-        <v>34752</v>
+    <row r="24" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A24" s="50">
+        <v>2009</v>
+      </c>
+      <c r="B24" s="50">
+        <v>211.143</v>
+      </c>
+      <c r="C24" s="50">
+        <v>212.19300000000001</v>
+      </c>
+      <c r="D24" s="50">
+        <v>212.709</v>
+      </c>
+      <c r="E24" s="50">
+        <v>213.24</v>
+      </c>
+      <c r="F24" s="50">
+        <v>213.85599999999999</v>
+      </c>
+      <c r="G24" s="50">
+        <v>215.69300000000001</v>
+      </c>
+      <c r="H24" s="50">
+        <v>215.351</v>
+      </c>
+      <c r="I24" s="50">
+        <v>215.834</v>
+      </c>
+      <c r="J24" s="50">
+        <v>215.96899999999999</v>
+      </c>
+      <c r="K24" s="50">
+        <v>216.17699999999999</v>
+      </c>
+      <c r="L24" s="50">
+        <v>216.33</v>
+      </c>
+      <c r="M24" s="50">
+        <v>215.94900000000001</v>
+      </c>
+      <c r="N24" s="50">
+        <v>214.53700000000001</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>-0.76599999999999113</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>200.93700000000001</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>190.53700000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="46">
-        <v>25</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="47">
-        <v>36180.273000000001</v>
+    <row r="25" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A25" s="51">
+        <v>2010</v>
+      </c>
+      <c r="B25" s="51">
+        <v>216.68700000000001</v>
+      </c>
+      <c r="C25" s="51">
+        <v>216.74100000000001</v>
+      </c>
+      <c r="D25" s="51">
+        <v>217.631</v>
+      </c>
+      <c r="E25" s="51">
+        <v>218.00899999999999</v>
+      </c>
+      <c r="F25" s="51">
+        <v>218.178</v>
+      </c>
+      <c r="G25" s="51">
+        <v>217.965</v>
+      </c>
+      <c r="H25" s="51">
+        <v>218.011</v>
+      </c>
+      <c r="I25" s="51">
+        <v>218.31200000000001</v>
+      </c>
+      <c r="J25" s="51">
+        <v>218.43899999999999</v>
+      </c>
+      <c r="K25" s="51">
+        <v>218.71100000000001</v>
+      </c>
+      <c r="L25" s="51">
+        <v>218.803</v>
+      </c>
+      <c r="M25" s="51">
+        <v>219.179</v>
+      </c>
+      <c r="N25" s="51">
+        <v>218.05600000000001</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>3.5190000000000055</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>204.45600000000002</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>194.05600000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="46">
-        <v>26</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="47">
-        <v>37422</v>
+    <row r="26" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A26" s="50">
+        <v>2011</v>
+      </c>
+      <c r="B26" s="50">
+        <v>220.22300000000001</v>
+      </c>
+      <c r="C26" s="50">
+        <v>221.309</v>
+      </c>
+      <c r="D26" s="50">
+        <v>223.46700000000001</v>
+      </c>
+      <c r="E26" s="50">
+        <v>224.90600000000001</v>
+      </c>
+      <c r="F26" s="50">
+        <v>225.964</v>
+      </c>
+      <c r="G26" s="50">
+        <v>225.72200000000001</v>
+      </c>
+      <c r="H26" s="50">
+        <v>225.922</v>
+      </c>
+      <c r="I26" s="50">
+        <v>226.54499999999999</v>
+      </c>
+      <c r="J26" s="50">
+        <v>226.88900000000001</v>
+      </c>
+      <c r="K26" s="50">
+        <v>226.42099999999999</v>
+      </c>
+      <c r="L26" s="50">
+        <v>226.23</v>
+      </c>
+      <c r="M26" s="50">
+        <v>225.672</v>
+      </c>
+      <c r="N26" s="50">
+        <v>224.93899999999999</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>6.8829999999999814</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>211.339</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>200.93899999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="46">
-        <v>27</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="47">
-        <v>38693.544999999998</v>
+    <row r="27" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A27" s="51">
+        <v>2012</v>
+      </c>
+      <c r="B27" s="51">
+        <v>226.66499999999999</v>
+      </c>
+      <c r="C27" s="51">
+        <v>227.66300000000001</v>
+      </c>
+      <c r="D27" s="51">
+        <v>229.392</v>
+      </c>
+      <c r="E27" s="51">
+        <v>230.08500000000001</v>
+      </c>
+      <c r="F27" s="51">
+        <v>229.815</v>
+      </c>
+      <c r="G27" s="51">
+        <v>229.47800000000001</v>
+      </c>
+      <c r="H27" s="51">
+        <v>229.10400000000001</v>
+      </c>
+      <c r="I27" s="51">
+        <v>230.37899999999999</v>
+      </c>
+      <c r="J27" s="51">
+        <v>231.40700000000001</v>
+      </c>
+      <c r="K27" s="51">
+        <v>231.31700000000001</v>
+      </c>
+      <c r="L27" s="51">
+        <v>230.221</v>
+      </c>
+      <c r="M27" s="51">
+        <v>229.601</v>
+      </c>
+      <c r="N27" s="51">
+        <v>229.59399999999999</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>4.6550000000000011</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>215.994</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>205.59399999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="46">
-        <v>28</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="47">
-        <v>41342.273000000001</v>
+    <row r="28" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A28" s="50">
+        <v>2013</v>
+      </c>
+      <c r="B28" s="50">
+        <v>230.28</v>
+      </c>
+      <c r="C28" s="50">
+        <v>232.166</v>
+      </c>
+      <c r="D28" s="50">
+        <v>232.773</v>
+      </c>
+      <c r="E28" s="50">
+        <v>232.53100000000001</v>
+      </c>
+      <c r="F28" s="50">
+        <v>232.94499999999999</v>
+      </c>
+      <c r="G28" s="50">
+        <v>233.50399999999999</v>
+      </c>
+      <c r="H28" s="50">
+        <v>233.596</v>
+      </c>
+      <c r="I28" s="50">
+        <v>233.87700000000001</v>
+      </c>
+      <c r="J28" s="50">
+        <v>234.149</v>
+      </c>
+      <c r="K28" s="50">
+        <v>233.54599999999999</v>
+      </c>
+      <c r="L28" s="50">
+        <v>233.06899999999999</v>
+      </c>
+      <c r="M28" s="50">
+        <v>233.04900000000001</v>
+      </c>
+      <c r="N28" s="50">
+        <v>232.95699999999999</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>3.3629999999999995</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>219.357</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="2"/>
+        <v>208.95699999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="46">
-        <v>29</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="47">
-        <v>42765.317999999999</v>
+    <row r="29" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A29" s="51">
+        <v>2014</v>
+      </c>
+      <c r="B29" s="51">
+        <v>233.916</v>
+      </c>
+      <c r="C29" s="51">
+        <v>234.78100000000001</v>
+      </c>
+      <c r="D29" s="51">
+        <v>236.29300000000001</v>
+      </c>
+      <c r="E29" s="51">
+        <v>237.072</v>
+      </c>
+      <c r="F29" s="51">
+        <v>237.9</v>
+      </c>
+      <c r="G29" s="51">
+        <v>238.34299999999999</v>
+      </c>
+      <c r="H29" s="51">
+        <v>238.25</v>
+      </c>
+      <c r="I29" s="51">
+        <v>237.852</v>
+      </c>
+      <c r="J29" s="51">
+        <v>238.03100000000001</v>
+      </c>
+      <c r="K29" s="51">
+        <v>237.43299999999999</v>
+      </c>
+      <c r="L29" s="51">
+        <v>236.15100000000001</v>
+      </c>
+      <c r="M29" s="51">
+        <v>234.81200000000001</v>
+      </c>
+      <c r="N29" s="51">
+        <v>236.73599999999999</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>3.7789999999999964</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>223.136</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="2"/>
+        <v>212.73599999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="46">
-        <v>30</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="47">
-        <v>43592.455000000002</v>
+    <row r="30" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A30" s="50">
+        <v>2015</v>
+      </c>
+      <c r="B30" s="50">
+        <v>233.70699999999999</v>
+      </c>
+      <c r="C30" s="50">
+        <v>234.72200000000001</v>
+      </c>
+      <c r="D30" s="50">
+        <v>236.119</v>
+      </c>
+      <c r="E30" s="50">
+        <v>236.59899999999999</v>
+      </c>
+      <c r="F30" s="50">
+        <v>237.80500000000001</v>
+      </c>
+      <c r="G30" s="50">
+        <v>238.63800000000001</v>
+      </c>
+      <c r="H30" s="50">
+        <v>238.654</v>
+      </c>
+      <c r="I30" s="50">
+        <v>238.316</v>
+      </c>
+      <c r="J30" s="50">
+        <v>237.94499999999999</v>
+      </c>
+      <c r="K30" s="50">
+        <v>237.83799999999999</v>
+      </c>
+      <c r="L30" s="50">
+        <v>237.33600000000001</v>
+      </c>
+      <c r="M30" s="50">
+        <v>236.52500000000001</v>
+      </c>
+      <c r="N30" s="50">
+        <v>237.017</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>0.28100000000000591</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>223.417</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="2"/>
+        <v>213.017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A31" s="51">
+        <v>2016</v>
+      </c>
+      <c r="B31" s="51">
+        <v>236.916</v>
+      </c>
+      <c r="C31" s="51">
+        <v>237.11099999999999</v>
+      </c>
+      <c r="D31" s="51">
+        <v>238.13200000000001</v>
+      </c>
+      <c r="E31" s="51">
+        <v>239.261</v>
+      </c>
+      <c r="F31" s="51">
+        <v>240.22900000000001</v>
+      </c>
+      <c r="G31" s="51">
+        <v>241.018</v>
+      </c>
+      <c r="H31" s="51">
+        <v>240.62799999999999</v>
+      </c>
+      <c r="I31" s="51">
+        <v>240.84899999999999</v>
+      </c>
+      <c r="J31" s="51">
+        <v>241.428</v>
+      </c>
+      <c r="K31" s="51">
+        <v>241.72900000000001</v>
+      </c>
+      <c r="L31" s="51">
+        <v>241.35300000000001</v>
+      </c>
+      <c r="M31" s="51">
+        <v>241.43199999999999</v>
+      </c>
+      <c r="N31" s="51">
+        <v>240.00800000000001</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>2.9910000000000139</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>226.40800000000002</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="2"/>
+        <v>216.00800000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A32" s="50">
+        <v>2017</v>
+      </c>
+      <c r="B32" s="50">
+        <v>242.839</v>
+      </c>
+      <c r="C32" s="50">
+        <v>243.60300000000001</v>
+      </c>
+      <c r="D32" s="50">
+        <v>243.80099999999999</v>
+      </c>
+      <c r="E32" s="50">
+        <v>244.524</v>
+      </c>
+      <c r="F32" s="50">
+        <v>244.733</v>
+      </c>
+      <c r="G32" s="50">
+        <v>244.95500000000001</v>
+      </c>
+      <c r="H32" s="50">
+        <v>244.786</v>
+      </c>
+      <c r="I32" s="50">
+        <v>245.51900000000001</v>
+      </c>
+      <c r="J32" s="50">
+        <v>246.81899999999999</v>
+      </c>
+      <c r="K32" s="50">
+        <v>246.66300000000001</v>
+      </c>
+      <c r="L32" s="50">
+        <v>246.66900000000001</v>
+      </c>
+      <c r="M32" s="50">
+        <v>246.524</v>
+      </c>
+      <c r="N32" s="50">
+        <v>245.12</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="0"/>
+        <v>5.1119999999999948</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>231.52</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="2"/>
+        <v>221.12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" ht="15.75" thickBot="1">
+      <c r="A33" s="51">
+        <v>2018</v>
+      </c>
+      <c r="B33" s="51">
+        <v>247.86699999999999</v>
+      </c>
+      <c r="C33" s="51">
+        <v>248.99100000000001</v>
+      </c>
+      <c r="D33" s="51">
+        <v>249.554</v>
+      </c>
+      <c r="E33" s="51">
+        <v>250.54599999999999</v>
+      </c>
+      <c r="F33" s="51">
+        <v>251.58799999999999</v>
+      </c>
+      <c r="G33" s="51">
+        <v>251.989</v>
+      </c>
+      <c r="H33" s="51">
+        <v>252.006</v>
+      </c>
+      <c r="I33" s="51">
+        <v>252.14599999999999</v>
+      </c>
+      <c r="J33" s="51">
+        <v>252.43899999999999</v>
+      </c>
+      <c r="K33" s="51">
+        <v>252.88499999999999</v>
+      </c>
+      <c r="L33" s="51">
+        <v>252.03800000000001</v>
+      </c>
+      <c r="M33" s="51">
+        <v>251.233</v>
+      </c>
+      <c r="N33" s="51">
+        <v>251.107</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="0"/>
+        <v>5.9869999999999948</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="1"/>
+        <v>237.50700000000001</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="2"/>
+        <v>227.107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33">
+      <c r="A34" s="50">
+        <v>2019</v>
+      </c>
+      <c r="B34" s="50">
+        <v>251.71199999999999</v>
+      </c>
+      <c r="C34" s="50">
+        <v>252.77600000000001</v>
+      </c>
+      <c r="D34" s="50">
+        <v>254.202</v>
+      </c>
+      <c r="E34" s="50">
+        <v>255.548</v>
+      </c>
+      <c r="F34" s="50">
+        <v>256.09199999999998</v>
+      </c>
+      <c r="G34" s="50">
+        <v>256.14299999999997</v>
+      </c>
+      <c r="H34" s="50">
+        <v>256.57100000000003</v>
+      </c>
+      <c r="I34" s="50">
+        <v>256.55799999999999</v>
+      </c>
+      <c r="J34" s="50">
+        <v>256.75900000000001</v>
+      </c>
+      <c r="K34" s="50">
+        <v>257.346</v>
+      </c>
+      <c r="L34" s="50">
+        <v>257.20800000000003</v>
+      </c>
+      <c r="M34" s="50">
+        <v>256.97399999999999</v>
+      </c>
+      <c r="N34" s="50">
+        <v>255.65700000000001</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="0"/>
+        <v>4.5500000000000114</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="1"/>
+        <v>242.05700000000002</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="2"/>
+        <v>231.65700000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33">
+      <c r="A38">
+        <v>100</v>
+      </c>
+      <c r="B38">
+        <v>104.7</v>
+      </c>
+      <c r="C38">
+        <v>110.4</v>
+      </c>
+      <c r="D38">
+        <v>117.1</v>
+      </c>
+      <c r="E38">
+        <v>122.6</v>
+      </c>
+      <c r="F38">
+        <v>126.70000000000002</v>
+      </c>
+      <c r="G38">
+        <v>130.9</v>
+      </c>
+      <c r="H38">
+        <v>134.6</v>
+      </c>
+      <c r="I38">
+        <v>138.80000000000001</v>
+      </c>
+      <c r="J38">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="K38">
+        <v>146.9</v>
+      </c>
+      <c r="L38">
+        <v>149.4</v>
+      </c>
+      <c r="M38">
+        <v>153</v>
+      </c>
+      <c r="N38">
+        <v>158.6</v>
+      </c>
+      <c r="O38">
+        <v>163.5</v>
+      </c>
+      <c r="P38">
+        <v>166.28</v>
+      </c>
+      <c r="Q38">
+        <v>170.36</v>
+      </c>
+      <c r="R38">
+        <v>175.3</v>
+      </c>
+      <c r="S38">
+        <v>181.70000000000002</v>
+      </c>
+      <c r="T38">
+        <v>188</v>
+      </c>
+      <c r="U38">
+        <v>193.74200000000002</v>
+      </c>
+      <c r="V38">
+        <v>201.703</v>
+      </c>
+      <c r="W38">
+        <v>200.93700000000001</v>
+      </c>
+      <c r="X38">
+        <v>204.45600000000002</v>
+      </c>
+      <c r="Y38">
+        <v>211.339</v>
+      </c>
+      <c r="Z38">
+        <v>215.994</v>
+      </c>
+      <c r="AA38">
+        <v>219.357</v>
+      </c>
+      <c r="AB38">
+        <v>223.136</v>
+      </c>
+      <c r="AC38">
+        <v>223.417</v>
+      </c>
+      <c r="AD38">
+        <v>226.40800000000002</v>
+      </c>
+      <c r="AE38">
+        <v>231.52</v>
+      </c>
+      <c r="AF38">
+        <v>237.50700000000001</v>
+      </c>
+      <c r="AG38">
+        <v>242.05700000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33">
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <v>106.69999999999999</v>
+      </c>
+      <c r="E39">
+        <v>112.19999999999999</v>
+      </c>
+      <c r="F39">
+        <v>116.30000000000001</v>
+      </c>
+      <c r="G39">
+        <v>120.5</v>
+      </c>
+      <c r="H39">
+        <v>124.19999999999999</v>
+      </c>
+      <c r="I39">
+        <v>128.4</v>
+      </c>
+      <c r="J39">
+        <v>132.9</v>
+      </c>
+      <c r="K39">
+        <v>136.5</v>
+      </c>
+      <c r="L39">
+        <v>139</v>
+      </c>
+      <c r="M39">
+        <v>142.6</v>
+      </c>
+      <c r="N39">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="O39">
+        <v>153.1</v>
+      </c>
+      <c r="P39">
+        <v>155.88</v>
+      </c>
+      <c r="Q39">
+        <v>159.96</v>
+      </c>
+      <c r="R39">
+        <v>164.9</v>
+      </c>
+      <c r="S39">
+        <v>171.3</v>
+      </c>
+      <c r="T39">
+        <v>177.6</v>
+      </c>
+      <c r="U39">
+        <v>183.34200000000001</v>
+      </c>
+      <c r="V39">
+        <v>191.303</v>
+      </c>
+      <c r="W39">
+        <v>190.53700000000001</v>
+      </c>
+      <c r="X39">
+        <v>194.05600000000001</v>
+      </c>
+      <c r="Y39">
+        <v>200.93899999999999</v>
+      </c>
+      <c r="Z39">
+        <v>205.59399999999999</v>
+      </c>
+      <c r="AA39">
+        <v>208.95699999999999</v>
+      </c>
+      <c r="AB39">
+        <v>212.73599999999999</v>
+      </c>
+      <c r="AC39">
+        <v>213.017</v>
+      </c>
+      <c r="AD39">
+        <v>216.00800000000001</v>
+      </c>
+      <c r="AE39">
+        <v>221.12</v>
+      </c>
+      <c r="AF39">
+        <v>227.107</v>
+      </c>
+      <c r="AG39">
+        <v>231.65700000000001</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:P33">
+    <sortCondition ref="A1:A33"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="43">
+        <v>1</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="44">
+        <v>8074.1819999999998</v>
+      </c>
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="43">
+        <v>2</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="44">
+        <v>8876.4549999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="43">
+        <v>3</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="44">
+        <v>9803.9089999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="43">
+        <v>4</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="44">
+        <v>10693.091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="43">
+        <v>5</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="44">
+        <v>11438.909</v>
+      </c>
+      <c r="F5" s="56">
+        <v>1987</v>
+      </c>
+      <c r="G5" s="54">
+        <v>55260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="43">
+        <v>6</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="44">
+        <v>12223.227000000001</v>
+      </c>
+      <c r="F6" s="55">
+        <v>1988</v>
+      </c>
+      <c r="G6" s="54">
+        <v>55716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="43">
+        <v>7</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="44">
+        <v>12989.045</v>
+      </c>
+      <c r="F7" s="55">
+        <v>1989</v>
+      </c>
+      <c r="G7" s="54">
+        <v>56678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="43">
+        <v>8</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="44">
+        <v>13896.772999999999</v>
+      </c>
+      <c r="F8" s="55">
+        <v>1990</v>
+      </c>
+      <c r="G8" s="54">
+        <v>55952</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="43">
+        <v>9</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="44">
+        <v>14843.727000000001</v>
+      </c>
+      <c r="F9" s="55">
+        <v>1991</v>
+      </c>
+      <c r="G9" s="54">
+        <v>54318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="43">
+        <v>10</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="44">
+        <v>15679.591</v>
+      </c>
+      <c r="F10" s="56">
+        <v>1992</v>
+      </c>
+      <c r="G10" s="54">
+        <v>53897</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="43">
+        <v>11</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="44">
+        <v>16532.591</v>
+      </c>
+      <c r="F11" s="56">
+        <v>1993</v>
+      </c>
+      <c r="G11" s="54">
+        <v>53610</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="43">
+        <v>12</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="44">
+        <v>17498.955000000002</v>
+      </c>
+      <c r="F12" s="56">
+        <v>1994</v>
+      </c>
+      <c r="G12" s="54">
+        <v>54233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="43">
+        <v>13</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="44">
+        <v>18489.135999999999</v>
+      </c>
+      <c r="F13" s="56">
+        <v>1995</v>
+      </c>
+      <c r="G13" s="54">
+        <v>55931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="43">
+        <v>14</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="44">
+        <v>19671.591</v>
+      </c>
+      <c r="F14" s="55">
+        <v>1996</v>
+      </c>
+      <c r="G14" s="54">
+        <v>56744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="43">
+        <v>15</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="44">
+        <v>21000.455000000002</v>
+      </c>
+      <c r="F15" s="55">
+        <v>1997</v>
+      </c>
+      <c r="G15" s="54">
+        <v>57911</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="43">
+        <v>16</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="44">
+        <v>22421.909</v>
+      </c>
+      <c r="F16" s="55">
+        <v>1998</v>
+      </c>
+      <c r="G16" s="54">
+        <v>60040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="43">
+        <v>17</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="44">
+        <v>23915</v>
+      </c>
+      <c r="F17" s="56">
+        <v>1999</v>
+      </c>
+      <c r="G17" s="54">
+        <v>61526</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="43">
+        <v>18</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="44">
+        <v>25435.623</v>
+      </c>
+      <c r="F18" s="56">
+        <v>2000</v>
+      </c>
+      <c r="G18" s="54">
+        <v>61399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="43">
+        <v>19</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="44">
+        <v>27138.591</v>
+      </c>
+      <c r="F19" s="55">
+        <v>2001</v>
+      </c>
+      <c r="G19" s="54">
+        <v>60038</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="43">
+        <v>20</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="44">
+        <v>28867.773000000001</v>
+      </c>
+      <c r="F20" s="55">
+        <v>2002</v>
+      </c>
+      <c r="G20" s="54">
+        <v>59360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="43">
+        <v>21</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="44">
+        <v>30750.773000000001</v>
+      </c>
+      <c r="F21" s="55">
+        <v>2003</v>
+      </c>
+      <c r="G21" s="54">
+        <v>59286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="43">
+        <v>22</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="44">
+        <v>31974.909</v>
+      </c>
+      <c r="F22" s="56">
+        <v>2004</v>
+      </c>
+      <c r="G22" s="54">
+        <v>59080</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="43">
+        <v>23</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="44">
+        <v>33336.135999999999</v>
+      </c>
+      <c r="F23" s="55">
+        <v>2005</v>
+      </c>
+      <c r="G23" s="54">
+        <v>59712</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="43">
+        <v>24</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="44">
+        <v>34752</v>
+      </c>
+      <c r="F24" s="55">
+        <v>2006</v>
+      </c>
+      <c r="G24" s="54">
+        <v>60178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="43">
+        <v>25</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="44">
+        <v>36180.273000000001</v>
+      </c>
+      <c r="F25" s="55">
+        <v>2007</v>
+      </c>
+      <c r="G25" s="54">
+        <v>60985</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="43">
+        <v>26</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="44">
+        <v>37422</v>
+      </c>
+      <c r="F26" s="55">
+        <v>2008</v>
+      </c>
+      <c r="G26" s="54">
+        <v>58811</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="43">
+        <v>27</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="44">
+        <v>38693.544999999998</v>
+      </c>
+      <c r="F27" s="56">
+        <v>2009</v>
+      </c>
+      <c r="G27" s="54">
+        <v>58400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="43">
+        <v>28</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="44">
+        <v>41342.273000000001</v>
+      </c>
+      <c r="F28" s="56">
+        <v>2010</v>
+      </c>
+      <c r="G28" s="54">
+        <v>56873</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="43">
+        <v>29</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="44">
+        <v>42765.317999999999</v>
+      </c>
+      <c r="F29" s="55">
+        <v>2011</v>
+      </c>
+      <c r="G29" s="54">
+        <v>56006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="43">
+        <v>30</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="44">
+        <v>43592.455000000002</v>
+      </c>
+      <c r="F30" s="55">
+        <v>2012</v>
+      </c>
+      <c r="G30" s="54">
+        <v>55900</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="F31" s="56">
+        <v>2013</v>
+      </c>
+      <c r="G31" s="54">
+        <v>57856</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="F32" s="56">
+        <v>2013</v>
+      </c>
+      <c r="G32" s="54">
+        <v>56079</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7">
+      <c r="F33" s="55">
+        <v>2014</v>
+      </c>
+      <c r="G33" s="54">
+        <v>56969</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7">
+      <c r="F34" s="55">
+        <v>2015</v>
+      </c>
+      <c r="G34" s="54">
+        <v>59901</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7">
+      <c r="F35" s="55">
+        <v>2016</v>
+      </c>
+      <c r="G35" s="54">
+        <v>61779</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7">
+      <c r="F36" s="56">
+        <v>2017</v>
+      </c>
+      <c r="G36" s="54">
+        <v>62626</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7">
+      <c r="F37" s="55">
+        <v>2017</v>
+      </c>
+      <c r="G37" s="54">
+        <v>62868</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7">
+      <c r="F38" s="55">
+        <v>2018</v>
+      </c>
+      <c r="G38" s="54">
+        <v>63179</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="F5:G38">
+    <sortCondition ref="F5:F38"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>